--- a/Code/Results/Cases/Case_2_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021374705225597</v>
+        <v>1.049429957228124</v>
       </c>
       <c r="D2">
-        <v>1.033201551142804</v>
+        <v>1.048819649035727</v>
       </c>
       <c r="E2">
-        <v>1.024949358590882</v>
+        <v>1.060514091990276</v>
       </c>
       <c r="F2">
-        <v>1.034024727128365</v>
+        <v>1.068508330146617</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050828267886969</v>
+        <v>1.044828802889624</v>
       </c>
       <c r="J2">
-        <v>1.042934371041742</v>
+        <v>1.054468447793639</v>
       </c>
       <c r="K2">
-        <v>1.044216930911719</v>
+        <v>1.051578430221607</v>
       </c>
       <c r="L2">
-        <v>1.036071716406612</v>
+        <v>1.063240664831152</v>
       </c>
       <c r="M2">
-        <v>1.045029552658578</v>
+        <v>1.071213324540388</v>
       </c>
       <c r="N2">
-        <v>1.044415457474866</v>
+        <v>1.055965913938727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026795251001426</v>
+        <v>1.050535264081196</v>
       </c>
       <c r="D3">
-        <v>1.037171198227368</v>
+        <v>1.04964321193144</v>
       </c>
       <c r="E3">
-        <v>1.030198554443601</v>
+        <v>1.061689931887884</v>
       </c>
       <c r="F3">
-        <v>1.039537785456247</v>
+        <v>1.069732729822327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052683517645926</v>
+        <v>1.045147836785625</v>
       </c>
       <c r="J3">
-        <v>1.046581178806536</v>
+        <v>1.055222268688761</v>
       </c>
       <c r="K3">
-        <v>1.047349571402724</v>
+        <v>1.052214085521321</v>
       </c>
       <c r="L3">
-        <v>1.04045908683246</v>
+        <v>1.064230032790796</v>
       </c>
       <c r="M3">
-        <v>1.049688582694099</v>
+        <v>1.07225270133949</v>
       </c>
       <c r="N3">
-        <v>1.04806744412498</v>
+        <v>1.056720805345985</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03021915489473</v>
+        <v>1.051250233543303</v>
       </c>
       <c r="D4">
-        <v>1.039681484104048</v>
+        <v>1.05017589164926</v>
       </c>
       <c r="E4">
-        <v>1.033525354921328</v>
+        <v>1.062451483468579</v>
       </c>
       <c r="F4">
-        <v>1.043030012209921</v>
+        <v>1.070525608855001</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053846089632608</v>
+        <v>1.045353009753511</v>
       </c>
       <c r="J4">
-        <v>1.048880214284439</v>
+        <v>1.055709231966445</v>
       </c>
       <c r="K4">
-        <v>1.049323463289382</v>
+        <v>1.052624527765913</v>
       </c>
       <c r="L4">
-        <v>1.043235319641449</v>
+        <v>1.064870345475302</v>
       </c>
       <c r="M4">
-        <v>1.05263542532971</v>
+        <v>1.072925286946877</v>
       </c>
       <c r="N4">
-        <v>1.050369744496965</v>
+        <v>1.057208460167378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031639393860331</v>
+        <v>1.051550750663832</v>
       </c>
       <c r="D5">
-        <v>1.040723373874286</v>
+        <v>1.050399777394667</v>
       </c>
       <c r="E5">
-        <v>1.034907955287731</v>
+        <v>1.062771809213165</v>
       </c>
       <c r="F5">
-        <v>1.04448093776617</v>
+        <v>1.070859082259781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054326054062927</v>
+        <v>1.045438962173971</v>
       </c>
       <c r="J5">
-        <v>1.049832742419749</v>
+        <v>1.055913757983372</v>
       </c>
       <c r="K5">
-        <v>1.050141026446248</v>
+        <v>1.05279686978917</v>
       </c>
       <c r="L5">
-        <v>1.044388054955309</v>
+        <v>1.065139563661296</v>
       </c>
       <c r="M5">
-        <v>1.053858693334577</v>
+        <v>1.073208052094859</v>
       </c>
       <c r="N5">
-        <v>1.051323625331484</v>
+        <v>1.057413276634709</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031876757340761</v>
+        <v>1.051601205551561</v>
       </c>
       <c r="D6">
-        <v>1.040897538855045</v>
+        <v>1.050437365699502</v>
       </c>
       <c r="E6">
-        <v>1.035139182639477</v>
+        <v>1.062825603275509</v>
       </c>
       <c r="F6">
-        <v>1.044723567105956</v>
+        <v>1.070915082561345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054406135458533</v>
+        <v>1.04545337624094</v>
       </c>
       <c r="J6">
-        <v>1.049991871118069</v>
+        <v>1.055948087475097</v>
       </c>
       <c r="K6">
-        <v>1.050277592767311</v>
+        <v>1.052825794587927</v>
       </c>
       <c r="L6">
-        <v>1.044580777488212</v>
+        <v>1.065184768401958</v>
       </c>
       <c r="M6">
-        <v>1.054063190035207</v>
+        <v>1.073255530224909</v>
       </c>
       <c r="N6">
-        <v>1.051482980010808</v>
+        <v>1.05744765487825</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03023820645883</v>
+        <v>1.051254249286806</v>
       </c>
       <c r="D7">
-        <v>1.039695457991898</v>
+        <v>1.050178883429061</v>
       </c>
       <c r="E7">
-        <v>1.033543891190492</v>
+        <v>1.062455763009993</v>
       </c>
       <c r="F7">
-        <v>1.04304946617199</v>
+        <v>1.070530064163992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053852537069345</v>
+        <v>1.045354159441596</v>
       </c>
       <c r="J7">
-        <v>1.048892996273032</v>
+        <v>1.055711965612318</v>
       </c>
       <c r="K7">
-        <v>1.04933443519681</v>
+        <v>1.052626831425103</v>
       </c>
       <c r="L7">
-        <v>1.043250778314006</v>
+        <v>1.064873942660237</v>
       </c>
       <c r="M7">
-        <v>1.052651831086552</v>
+        <v>1.072929065227766</v>
       </c>
       <c r="N7">
-        <v>1.050382544637449</v>
+        <v>1.057211197695342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023224421430603</v>
+        <v>1.049803550690548</v>
       </c>
       <c r="D8">
-        <v>1.034555522736183</v>
+        <v>1.0490980216334</v>
       </c>
       <c r="E8">
-        <v>1.026738243884743</v>
+        <v>1.060911327184691</v>
       </c>
       <c r="F8">
-        <v>1.035903917491835</v>
+        <v>1.068921995860803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051463287041143</v>
+        <v>1.044936883546758</v>
       </c>
       <c r="J8">
-        <v>1.044179731604803</v>
+        <v>1.05472337289008</v>
       </c>
       <c r="K8">
-        <v>1.045286909406077</v>
+        <v>1.051793433009672</v>
       </c>
       <c r="L8">
-        <v>1.037567810976382</v>
+        <v>1.063575000808284</v>
       </c>
       <c r="M8">
-        <v>1.046618555740511</v>
+        <v>1.071564579103393</v>
       </c>
       <c r="N8">
-        <v>1.045662586592771</v>
+        <v>1.056221201058045</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010185137141284</v>
+        <v>1.047245369686502</v>
       </c>
       <c r="D9">
-        <v>1.025025816959113</v>
+        <v>1.047191715696341</v>
       </c>
       <c r="E9">
-        <v>1.014176767896724</v>
+        <v>1.058195194204527</v>
       </c>
       <c r="F9">
-        <v>1.022700331017621</v>
+        <v>1.066093010294766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046948761484951</v>
+        <v>1.044191908254254</v>
       </c>
       <c r="J9">
-        <v>1.035383288445851</v>
+        <v>1.052975130423456</v>
       </c>
       <c r="K9">
-        <v>1.037725509152981</v>
+        <v>1.050318211735398</v>
       </c>
       <c r="L9">
-        <v>1.027043949337674</v>
+        <v>1.061287028662255</v>
       </c>
       <c r="M9">
-        <v>1.035435542675581</v>
+        <v>1.069160447697016</v>
       </c>
       <c r="N9">
-        <v>1.036853651475567</v>
+        <v>1.054470475886593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000974065362008</v>
+        <v>1.045538600449988</v>
       </c>
       <c r="D10">
-        <v>1.018316210398785</v>
+        <v>1.045919705993091</v>
       </c>
       <c r="E10">
-        <v>1.005367514640298</v>
+        <v>1.056387990483276</v>
       </c>
       <c r="F10">
-        <v>1.013430188736275</v>
+        <v>1.064210078580921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043713075716868</v>
+        <v>1.043688738051682</v>
       </c>
       <c r="J10">
-        <v>1.029149089959793</v>
+        <v>1.051805428864607</v>
       </c>
       <c r="K10">
-        <v>1.032362451764048</v>
+        <v>1.049330233032263</v>
       </c>
       <c r="L10">
-        <v>1.019640528537787</v>
+        <v>1.059762292479187</v>
       </c>
       <c r="M10">
-        <v>1.027561118208443</v>
+        <v>1.067557823840978</v>
       </c>
       <c r="N10">
-        <v>1.030610599712587</v>
+        <v>1.053299113217364</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9968474932441409</v>
+        <v>1.044799224040663</v>
       </c>
       <c r="D11">
-        <v>1.015316715895815</v>
+        <v>1.045368639935172</v>
       </c>
       <c r="E11">
-        <v>1.001436887918324</v>
+        <v>1.055606281283435</v>
       </c>
       <c r="F11">
-        <v>1.009291257339519</v>
+        <v>1.063395460008315</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042253078526238</v>
+        <v>1.043469310562002</v>
       </c>
       <c r="J11">
-        <v>1.026352010820964</v>
+        <v>1.051297930560629</v>
       </c>
       <c r="K11">
-        <v>1.029955448759409</v>
+        <v>1.0489013563484</v>
       </c>
       <c r="L11">
-        <v>1.016331757415999</v>
+        <v>1.059102191105598</v>
       </c>
       <c r="M11">
-        <v>1.02404005580339</v>
+        <v>1.066863889193958</v>
       </c>
       <c r="N11">
-        <v>1.027809548400551</v>
+        <v>1.052790894207583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9952925214758266</v>
+        <v>1.044524535172393</v>
       </c>
       <c r="D12">
-        <v>1.014187516604109</v>
+        <v>1.04516390753326</v>
       </c>
       <c r="E12">
-        <v>0.9999582091858369</v>
+        <v>1.055316042005545</v>
       </c>
       <c r="F12">
-        <v>1.007733802224932</v>
+        <v>1.063092978772048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041701418944318</v>
+        <v>1.043387572025551</v>
       </c>
       <c r="J12">
-        <v>1.025297455150532</v>
+        <v>1.051109270690899</v>
       </c>
       <c r="K12">
-        <v>1.02904786201574</v>
+        <v>1.048741890436038</v>
       </c>
       <c r="L12">
-        <v>1.015086209885492</v>
+        <v>1.058857016974832</v>
       </c>
       <c r="M12">
-        <v>1.022714319698768</v>
+        <v>1.066606131672137</v>
       </c>
       <c r="N12">
-        <v>1.026753495140108</v>
+        <v>1.052601966419199</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9956270962162661</v>
+        <v>1.044583459221633</v>
       </c>
       <c r="D13">
-        <v>1.014430430247065</v>
+        <v>1.045207825229941</v>
       </c>
       <c r="E13">
-        <v>1.000276256319582</v>
+        <v>1.0553782937991</v>
       </c>
       <c r="F13">
-        <v>1.008068812180058</v>
+        <v>1.063157857321622</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041820183476705</v>
+        <v>1.043405115785689</v>
       </c>
       <c r="J13">
-        <v>1.025524382484011</v>
+        <v>1.051149745781051</v>
       </c>
       <c r="K13">
-        <v>1.029243167552167</v>
+        <v>1.048776103754405</v>
       </c>
       <c r="L13">
-        <v>1.015354149478289</v>
+        <v>1.058909606909541</v>
       </c>
       <c r="M13">
-        <v>1.022999521761785</v>
+        <v>1.066661421521491</v>
       </c>
       <c r="N13">
-        <v>1.026980744736429</v>
+        <v>1.052642498988621</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.996719419962112</v>
+        <v>1.044776519232571</v>
       </c>
       <c r="D14">
-        <v>1.015223688515591</v>
+        <v>1.045351717547794</v>
       </c>
       <c r="E14">
-        <v>1.001315048130778</v>
+        <v>1.055582287525516</v>
       </c>
       <c r="F14">
-        <v>1.009162935039401</v>
+        <v>1.063370454693242</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042207671985835</v>
+        <v>1.04346255879207</v>
       </c>
       <c r="J14">
-        <v>1.026265164733621</v>
+        <v>1.051282338989922</v>
       </c>
       <c r="K14">
-        <v>1.029880707912219</v>
+        <v>1.048888178154038</v>
       </c>
       <c r="L14">
-        <v>1.016229143474627</v>
+        <v>1.059081924596486</v>
       </c>
       <c r="M14">
-        <v>1.023930841158107</v>
+        <v>1.066842582868848</v>
       </c>
       <c r="N14">
-        <v>1.027722578981803</v>
+        <v>1.052775280495058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9973894527944973</v>
+        <v>1.044895463005672</v>
       </c>
       <c r="D15">
-        <v>1.01571041805238</v>
+        <v>1.045440368790086</v>
       </c>
       <c r="E15">
-        <v>1.001952570021955</v>
+        <v>1.055707990967455</v>
       </c>
       <c r="F15">
-        <v>1.00983435949433</v>
+        <v>1.063501456742362</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042445161590436</v>
+        <v>1.043497920387687</v>
       </c>
       <c r="J15">
-        <v>1.026719489350467</v>
+        <v>1.051364013826449</v>
       </c>
       <c r="K15">
-        <v>1.030271701592842</v>
+        <v>1.048957209408318</v>
       </c>
       <c r="L15">
-        <v>1.016766034034274</v>
+        <v>1.059188097420435</v>
       </c>
       <c r="M15">
-        <v>1.024502256331967</v>
+        <v>1.066954202414139</v>
       </c>
       <c r="N15">
-        <v>1.028177548791716</v>
+        <v>1.05285707131922</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001244903357494</v>
+        <v>1.045587663272776</v>
       </c>
       <c r="D16">
-        <v>1.018513217229913</v>
+        <v>1.045956272565706</v>
       </c>
       <c r="E16">
-        <v>1.005625828515845</v>
+        <v>1.056439887166407</v>
       </c>
       <c r="F16">
-        <v>1.013702135532425</v>
+        <v>1.064264156840128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043808687865894</v>
+        <v>1.043703268017677</v>
       </c>
       <c r="J16">
-        <v>1.02933258857164</v>
+        <v>1.051839088521165</v>
       </c>
       <c r="K16">
-        <v>1.032520345403197</v>
+        <v>1.049358673469635</v>
       </c>
       <c r="L16">
-        <v>1.019857862947075</v>
+        <v>1.059806103661648</v>
       </c>
       <c r="M16">
-        <v>1.027792359187662</v>
+        <v>1.067603878157522</v>
       </c>
       <c r="N16">
-        <v>1.03079435891351</v>
+        <v>1.053332820674495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003625378808177</v>
+        <v>1.046021771814482</v>
       </c>
       <c r="D17">
-        <v>1.020245508728582</v>
+        <v>1.046279810917052</v>
       </c>
       <c r="E17">
-        <v>1.007898040251172</v>
+        <v>1.056899205550995</v>
       </c>
       <c r="F17">
-        <v>1.016093962907484</v>
+        <v>1.064742765841225</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04464787756154</v>
+        <v>1.04383166157198</v>
       </c>
       <c r="J17">
-        <v>1.03094494842336</v>
+        <v>1.052136819484073</v>
       </c>
       <c r="K17">
-        <v>1.033907634481952</v>
+        <v>1.049610213039299</v>
       </c>
       <c r="L17">
-        <v>1.021768991006586</v>
+        <v>1.060193793899112</v>
       </c>
       <c r="M17">
-        <v>1.029825570806605</v>
+        <v>1.068011405033222</v>
       </c>
       <c r="N17">
-        <v>1.03240900850116</v>
+        <v>1.05363097444952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005000646617933</v>
+        <v>1.046274947840953</v>
       </c>
       <c r="D18">
-        <v>1.0212469019924</v>
+        <v>1.04646849860917</v>
       </c>
       <c r="E18">
-        <v>1.009212262590184</v>
+        <v>1.057167197576601</v>
       </c>
       <c r="F18">
-        <v>1.017477118589111</v>
+        <v>1.065021998317295</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045131713363461</v>
+        <v>1.043906401685938</v>
       </c>
       <c r="J18">
-        <v>1.031876057652081</v>
+        <v>1.052310383531901</v>
       </c>
       <c r="K18">
-        <v>1.034708694732432</v>
+        <v>1.049756828085831</v>
       </c>
       <c r="L18">
-        <v>1.022873852717834</v>
+        <v>1.060419938650592</v>
       </c>
       <c r="M18">
-        <v>1.031000842579946</v>
+        <v>1.068249109802733</v>
       </c>
       <c r="N18">
-        <v>1.033341440011785</v>
+        <v>1.053804784978204</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00546737581936</v>
+        <v>1.046361268912921</v>
       </c>
       <c r="D19">
-        <v>1.021586846887778</v>
+        <v>1.046532831705483</v>
       </c>
       <c r="E19">
-        <v>1.009658527490421</v>
+        <v>1.057258589431887</v>
       </c>
       <c r="F19">
-        <v>1.017946748703969</v>
+        <v>1.065117220939154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045295745084443</v>
+        <v>1.043931860755335</v>
       </c>
       <c r="J19">
-        <v>1.032191982267629</v>
+        <v>1.05236954788961</v>
       </c>
       <c r="K19">
-        <v>1.034980480635714</v>
+        <v>1.049806802447348</v>
       </c>
       <c r="L19">
-        <v>1.023248938576494</v>
+        <v>1.060497050165029</v>
       </c>
       <c r="M19">
-        <v>1.031399803218745</v>
+        <v>1.068330161229957</v>
       </c>
       <c r="N19">
-        <v>1.033657813276525</v>
+        <v>1.053864033356088</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003371353978213</v>
+        <v>1.045975199410454</v>
       </c>
       <c r="D20">
-        <v>1.020060589814392</v>
+        <v>1.046245101082866</v>
       </c>
       <c r="E20">
-        <v>1.007655412120248</v>
+        <v>1.05684991683253</v>
       </c>
       <c r="F20">
-        <v>1.015838588291335</v>
+        <v>1.064691408606337</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044558428254245</v>
+        <v>1.043817901642326</v>
       </c>
       <c r="J20">
-        <v>1.030772931340702</v>
+        <v>1.052104885847341</v>
       </c>
       <c r="K20">
-        <v>1.033759637034708</v>
+        <v>1.049583235956308</v>
       </c>
       <c r="L20">
-        <v>1.021564972877957</v>
+        <v>1.060152197213667</v>
       </c>
       <c r="M20">
-        <v>1.029608537492789</v>
+        <v>1.06796768113605</v>
       </c>
       <c r="N20">
-        <v>1.032236747134514</v>
+        <v>1.053598995463362</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9963983822230991</v>
+        <v>1.044719669305171</v>
       </c>
       <c r="D21">
-        <v>1.01499051692213</v>
+        <v>1.045309346006124</v>
       </c>
       <c r="E21">
-        <v>1.001009675499697</v>
+        <v>1.055522213090068</v>
       </c>
       <c r="F21">
-        <v>1.008841308284048</v>
+        <v>1.063307847195297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042093828658376</v>
+        <v>1.043445649703767</v>
       </c>
       <c r="J21">
-        <v>1.02604746121936</v>
+        <v>1.051243297807337</v>
       </c>
       <c r="K21">
-        <v>1.029693347992827</v>
+        <v>1.048855179512803</v>
       </c>
       <c r="L21">
-        <v>1.015971944484502</v>
+        <v>1.059031180874093</v>
       </c>
       <c r="M21">
-        <v>1.023657093255209</v>
+        <v>1.066789235356851</v>
       </c>
       <c r="N21">
-        <v>1.02750456630358</v>
+        <v>1.052736183869515</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9918850711077207</v>
+        <v>1.043929968775535</v>
       </c>
       <c r="D22">
-        <v>1.011715159566662</v>
+        <v>1.04472075692084</v>
       </c>
       <c r="E22">
-        <v>0.9967225410263334</v>
+        <v>1.054688140208445</v>
       </c>
       <c r="F22">
-        <v>1.00432497747349</v>
+        <v>1.062438550453123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040489851019343</v>
+        <v>1.043210249622603</v>
       </c>
       <c r="J22">
-        <v>1.02298561526551</v>
+        <v>1.050700701109234</v>
       </c>
       <c r="K22">
-        <v>1.027058055294541</v>
+        <v>1.048396483929691</v>
       </c>
       <c r="L22">
-        <v>1.012359205825196</v>
+        <v>1.058326450734751</v>
       </c>
       <c r="M22">
-        <v>1.019811239866906</v>
+        <v>1.066048303245875</v>
       </c>
       <c r="N22">
-        <v>1.024438372177277</v>
+        <v>1.052192816621863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.994290414339716</v>
+        <v>1.044348632756349</v>
       </c>
       <c r="D23">
-        <v>1.013460114623542</v>
+        <v>1.0450328022224</v>
       </c>
       <c r="E23">
-        <v>0.9990059703247143</v>
+        <v>1.05513023138166</v>
       </c>
       <c r="F23">
-        <v>1.006730714657282</v>
+        <v>1.062899324354446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041345483583293</v>
+        <v>1.043335167774567</v>
       </c>
       <c r="J23">
-        <v>1.024617692440615</v>
+        <v>1.050988425729183</v>
       </c>
       <c r="K23">
-        <v>1.028462809853523</v>
+        <v>1.048639736162087</v>
       </c>
       <c r="L23">
-        <v>1.01428387614875</v>
+        <v>1.058700032635954</v>
       </c>
       <c r="M23">
-        <v>1.021860253619596</v>
+        <v>1.066441085412681</v>
       </c>
       <c r="N23">
-        <v>1.026072767089172</v>
+        <v>1.052480949843777</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003486177622871</v>
+        <v>1.045996243574051</v>
       </c>
       <c r="D24">
-        <v>1.020144174529607</v>
+        <v>1.046260785045358</v>
       </c>
       <c r="E24">
-        <v>1.007765079604436</v>
+        <v>1.056872188037157</v>
       </c>
       <c r="F24">
-        <v>1.015954017941678</v>
+        <v>1.064714614519811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044598863967243</v>
+        <v>1.043824119624584</v>
       </c>
       <c r="J24">
-        <v>1.030850687291083</v>
+        <v>1.05211931558386</v>
       </c>
       <c r="K24">
-        <v>1.033826535752276</v>
+        <v>1.049595426059202</v>
       </c>
       <c r="L24">
-        <v>1.021657190303582</v>
+        <v>1.060170992929157</v>
       </c>
       <c r="M24">
-        <v>1.029706638384209</v>
+        <v>1.067987438078934</v>
       </c>
       <c r="N24">
-        <v>1.032314613507262</v>
+        <v>1.053613445691762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013642671907159</v>
+        <v>1.04790694810524</v>
       </c>
       <c r="D25">
-        <v>1.027549273455709</v>
+        <v>1.047684741993373</v>
       </c>
       <c r="E25">
-        <v>1.017496782845561</v>
+        <v>1.058896749861693</v>
       </c>
       <c r="F25">
-        <v>1.026191832574761</v>
+        <v>1.066823827483695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048154037834094</v>
+        <v>1.044385650652811</v>
       </c>
       <c r="J25">
-        <v>1.037719469853696</v>
+        <v>1.053427832428457</v>
       </c>
       <c r="K25">
-        <v>1.039734462166565</v>
+        <v>1.050700383431613</v>
       </c>
       <c r="L25">
-        <v>1.029829422614223</v>
+        <v>1.061878418940674</v>
       </c>
       <c r="M25">
-        <v>1.038396718430551</v>
+        <v>1.069781946689026</v>
       </c>
       <c r="N25">
-        <v>1.039193150528975</v>
+        <v>1.054923820780367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049429957228124</v>
+        <v>1.021374705225598</v>
       </c>
       <c r="D2">
-        <v>1.048819649035727</v>
+        <v>1.033201551142805</v>
       </c>
       <c r="E2">
-        <v>1.060514091990276</v>
+        <v>1.024949358590882</v>
       </c>
       <c r="F2">
-        <v>1.068508330146617</v>
+        <v>1.034024727128366</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044828802889624</v>
+        <v>1.050828267886969</v>
       </c>
       <c r="J2">
-        <v>1.054468447793639</v>
+        <v>1.042934371041744</v>
       </c>
       <c r="K2">
-        <v>1.051578430221607</v>
+        <v>1.04421693091172</v>
       </c>
       <c r="L2">
-        <v>1.063240664831152</v>
+        <v>1.036071716406612</v>
       </c>
       <c r="M2">
-        <v>1.071213324540388</v>
+        <v>1.045029552658579</v>
       </c>
       <c r="N2">
-        <v>1.055965913938727</v>
+        <v>1.044415457474867</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050535264081196</v>
+        <v>1.026795251001425</v>
       </c>
       <c r="D3">
-        <v>1.04964321193144</v>
+        <v>1.037171198227368</v>
       </c>
       <c r="E3">
-        <v>1.061689931887884</v>
+        <v>1.030198554443601</v>
       </c>
       <c r="F3">
-        <v>1.069732729822327</v>
+        <v>1.039537785456247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045147836785625</v>
+        <v>1.052683517645925</v>
       </c>
       <c r="J3">
-        <v>1.055222268688761</v>
+        <v>1.046581178806535</v>
       </c>
       <c r="K3">
-        <v>1.052214085521321</v>
+        <v>1.047349571402724</v>
       </c>
       <c r="L3">
-        <v>1.064230032790796</v>
+        <v>1.04045908683246</v>
       </c>
       <c r="M3">
-        <v>1.07225270133949</v>
+        <v>1.049688582694099</v>
       </c>
       <c r="N3">
-        <v>1.056720805345985</v>
+        <v>1.04806744412498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051250233543303</v>
+        <v>1.030219154894728</v>
       </c>
       <c r="D4">
-        <v>1.05017589164926</v>
+        <v>1.039681484104047</v>
       </c>
       <c r="E4">
-        <v>1.062451483468579</v>
+        <v>1.033525354921327</v>
       </c>
       <c r="F4">
-        <v>1.070525608855001</v>
+        <v>1.04303001220992</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045353009753511</v>
+        <v>1.053846089632607</v>
       </c>
       <c r="J4">
-        <v>1.055709231966445</v>
+        <v>1.048880214284437</v>
       </c>
       <c r="K4">
-        <v>1.052624527765913</v>
+        <v>1.049323463289381</v>
       </c>
       <c r="L4">
-        <v>1.064870345475302</v>
+        <v>1.043235319641448</v>
       </c>
       <c r="M4">
-        <v>1.072925286946877</v>
+        <v>1.052635425329709</v>
       </c>
       <c r="N4">
-        <v>1.057208460167378</v>
+        <v>1.050369744496963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051550750663832</v>
+        <v>1.031639393860332</v>
       </c>
       <c r="D5">
-        <v>1.050399777394667</v>
+        <v>1.040723373874287</v>
       </c>
       <c r="E5">
-        <v>1.062771809213165</v>
+        <v>1.034907955287732</v>
       </c>
       <c r="F5">
-        <v>1.070859082259781</v>
+        <v>1.044480937766171</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045438962173971</v>
+        <v>1.054326054062928</v>
       </c>
       <c r="J5">
-        <v>1.055913757983372</v>
+        <v>1.049832742419751</v>
       </c>
       <c r="K5">
-        <v>1.05279686978917</v>
+        <v>1.050141026446249</v>
       </c>
       <c r="L5">
-        <v>1.065139563661296</v>
+        <v>1.04438805495531</v>
       </c>
       <c r="M5">
-        <v>1.073208052094859</v>
+        <v>1.053858693334578</v>
       </c>
       <c r="N5">
-        <v>1.057413276634709</v>
+        <v>1.051323625331485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051601205551561</v>
+        <v>1.031876757340762</v>
       </c>
       <c r="D6">
-        <v>1.050437365699502</v>
+        <v>1.040897538855046</v>
       </c>
       <c r="E6">
-        <v>1.062825603275509</v>
+        <v>1.035139182639477</v>
       </c>
       <c r="F6">
-        <v>1.070915082561345</v>
+        <v>1.044723567105957</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04545337624094</v>
+        <v>1.054406135458534</v>
       </c>
       <c r="J6">
-        <v>1.055948087475097</v>
+        <v>1.04999187111807</v>
       </c>
       <c r="K6">
-        <v>1.052825794587927</v>
+        <v>1.050277592767312</v>
       </c>
       <c r="L6">
-        <v>1.065184768401958</v>
+        <v>1.044580777488213</v>
       </c>
       <c r="M6">
-        <v>1.073255530224909</v>
+        <v>1.054063190035207</v>
       </c>
       <c r="N6">
-        <v>1.05744765487825</v>
+        <v>1.051482980010809</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051254249286806</v>
+        <v>1.030238206458829</v>
       </c>
       <c r="D7">
-        <v>1.050178883429061</v>
+        <v>1.039695457991897</v>
       </c>
       <c r="E7">
-        <v>1.062455763009993</v>
+        <v>1.033543891190492</v>
       </c>
       <c r="F7">
-        <v>1.070530064163992</v>
+        <v>1.043049466171989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045354159441596</v>
+        <v>1.053852537069344</v>
       </c>
       <c r="J7">
-        <v>1.055711965612318</v>
+        <v>1.048892996273031</v>
       </c>
       <c r="K7">
-        <v>1.052626831425103</v>
+        <v>1.049334435196808</v>
       </c>
       <c r="L7">
-        <v>1.064873942660237</v>
+        <v>1.043250778314006</v>
       </c>
       <c r="M7">
-        <v>1.072929065227766</v>
+        <v>1.052651831086551</v>
       </c>
       <c r="N7">
-        <v>1.057211197695342</v>
+        <v>1.050382544637447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049803550690548</v>
+        <v>1.023224421430603</v>
       </c>
       <c r="D8">
-        <v>1.0490980216334</v>
+        <v>1.034555522736182</v>
       </c>
       <c r="E8">
-        <v>1.060911327184691</v>
+        <v>1.026738243884744</v>
       </c>
       <c r="F8">
-        <v>1.068921995860803</v>
+        <v>1.035903917491835</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044936883546758</v>
+        <v>1.051463287041143</v>
       </c>
       <c r="J8">
-        <v>1.05472337289008</v>
+        <v>1.044179731604803</v>
       </c>
       <c r="K8">
-        <v>1.051793433009672</v>
+        <v>1.045286909406077</v>
       </c>
       <c r="L8">
-        <v>1.063575000808284</v>
+        <v>1.037567810976382</v>
       </c>
       <c r="M8">
-        <v>1.071564579103393</v>
+        <v>1.046618555740511</v>
       </c>
       <c r="N8">
-        <v>1.056221201058045</v>
+        <v>1.045662586592772</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047245369686502</v>
+        <v>1.010185137141283</v>
       </c>
       <c r="D9">
-        <v>1.047191715696341</v>
+        <v>1.025025816959113</v>
       </c>
       <c r="E9">
-        <v>1.058195194204527</v>
+        <v>1.014176767896723</v>
       </c>
       <c r="F9">
-        <v>1.066093010294766</v>
+        <v>1.022700331017621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044191908254254</v>
+        <v>1.04694876148495</v>
       </c>
       <c r="J9">
-        <v>1.052975130423456</v>
+        <v>1.03538328844585</v>
       </c>
       <c r="K9">
-        <v>1.050318211735398</v>
+        <v>1.03772550915298</v>
       </c>
       <c r="L9">
-        <v>1.061287028662255</v>
+        <v>1.027043949337674</v>
       </c>
       <c r="M9">
-        <v>1.069160447697016</v>
+        <v>1.035435542675581</v>
       </c>
       <c r="N9">
-        <v>1.054470475886593</v>
+        <v>1.036853651475566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045538600449988</v>
+        <v>1.000974065362007</v>
       </c>
       <c r="D10">
-        <v>1.045919705993091</v>
+        <v>1.018316210398784</v>
       </c>
       <c r="E10">
-        <v>1.056387990483276</v>
+        <v>1.005367514640297</v>
       </c>
       <c r="F10">
-        <v>1.064210078580921</v>
+        <v>1.013430188736274</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043688738051682</v>
+        <v>1.043713075716868</v>
       </c>
       <c r="J10">
-        <v>1.051805428864607</v>
+        <v>1.029149089959792</v>
       </c>
       <c r="K10">
-        <v>1.049330233032263</v>
+        <v>1.032362451764047</v>
       </c>
       <c r="L10">
-        <v>1.059762292479187</v>
+        <v>1.019640528537787</v>
       </c>
       <c r="M10">
-        <v>1.067557823840978</v>
+        <v>1.027561118208442</v>
       </c>
       <c r="N10">
-        <v>1.053299113217364</v>
+        <v>1.030610599712586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044799224040663</v>
+        <v>0.9968474932441396</v>
       </c>
       <c r="D11">
-        <v>1.045368639935172</v>
+        <v>1.015316715895814</v>
       </c>
       <c r="E11">
-        <v>1.055606281283435</v>
+        <v>1.001436887918324</v>
       </c>
       <c r="F11">
-        <v>1.063395460008315</v>
+        <v>1.009291257339519</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043469310562002</v>
+        <v>1.042253078526237</v>
       </c>
       <c r="J11">
-        <v>1.051297930560629</v>
+        <v>1.026352010820963</v>
       </c>
       <c r="K11">
-        <v>1.0489013563484</v>
+        <v>1.029955448759408</v>
       </c>
       <c r="L11">
-        <v>1.059102191105598</v>
+        <v>1.016331757415998</v>
       </c>
       <c r="M11">
-        <v>1.066863889193958</v>
+        <v>1.02404005580339</v>
       </c>
       <c r="N11">
-        <v>1.052790894207583</v>
+        <v>1.02780954840055</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044524535172393</v>
+        <v>0.9952925214758259</v>
       </c>
       <c r="D12">
-        <v>1.04516390753326</v>
+        <v>1.014187516604108</v>
       </c>
       <c r="E12">
-        <v>1.055316042005545</v>
+        <v>0.9999582091858369</v>
       </c>
       <c r="F12">
-        <v>1.063092978772048</v>
+        <v>1.007733802224931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043387572025551</v>
+        <v>1.041701418944317</v>
       </c>
       <c r="J12">
-        <v>1.051109270690899</v>
+        <v>1.025297455150532</v>
       </c>
       <c r="K12">
-        <v>1.048741890436038</v>
+        <v>1.029047862015739</v>
       </c>
       <c r="L12">
-        <v>1.058857016974832</v>
+        <v>1.015086209885492</v>
       </c>
       <c r="M12">
-        <v>1.066606131672137</v>
+        <v>1.022714319698768</v>
       </c>
       <c r="N12">
-        <v>1.052601966419199</v>
+        <v>1.026753495140107</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044583459221633</v>
+        <v>0.9956270962162677</v>
       </c>
       <c r="D13">
-        <v>1.045207825229941</v>
+        <v>1.014430430247067</v>
       </c>
       <c r="E13">
-        <v>1.0553782937991</v>
+        <v>1.000276256319582</v>
       </c>
       <c r="F13">
-        <v>1.063157857321622</v>
+        <v>1.008068812180058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043405115785689</v>
+        <v>1.041820183476706</v>
       </c>
       <c r="J13">
-        <v>1.051149745781051</v>
+        <v>1.025524382484012</v>
       </c>
       <c r="K13">
-        <v>1.048776103754405</v>
+        <v>1.029243167552168</v>
       </c>
       <c r="L13">
-        <v>1.058909606909541</v>
+        <v>1.015354149478289</v>
       </c>
       <c r="M13">
-        <v>1.066661421521491</v>
+        <v>1.022999521761786</v>
       </c>
       <c r="N13">
-        <v>1.052642498988621</v>
+        <v>1.02698074473643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044776519232571</v>
+        <v>0.9967194199621136</v>
       </c>
       <c r="D14">
-        <v>1.045351717547794</v>
+        <v>1.015223688515592</v>
       </c>
       <c r="E14">
-        <v>1.055582287525516</v>
+        <v>1.001315048130779</v>
       </c>
       <c r="F14">
-        <v>1.063370454693242</v>
+        <v>1.009162935039402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04346255879207</v>
+        <v>1.042207671985836</v>
       </c>
       <c r="J14">
-        <v>1.051282338989922</v>
+        <v>1.026265164733623</v>
       </c>
       <c r="K14">
-        <v>1.048888178154038</v>
+        <v>1.02988070791222</v>
       </c>
       <c r="L14">
-        <v>1.059081924596486</v>
+        <v>1.016229143474628</v>
       </c>
       <c r="M14">
-        <v>1.066842582868848</v>
+        <v>1.023930841158108</v>
       </c>
       <c r="N14">
-        <v>1.052775280495058</v>
+        <v>1.027722578981804</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044895463005672</v>
+        <v>0.9973894527944962</v>
       </c>
       <c r="D15">
-        <v>1.045440368790086</v>
+        <v>1.015710418052379</v>
       </c>
       <c r="E15">
-        <v>1.055707990967455</v>
+        <v>1.001952570021954</v>
       </c>
       <c r="F15">
-        <v>1.063501456742362</v>
+        <v>1.009834359494329</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043497920387687</v>
+        <v>1.042445161590435</v>
       </c>
       <c r="J15">
-        <v>1.051364013826449</v>
+        <v>1.026719489350466</v>
       </c>
       <c r="K15">
-        <v>1.048957209408318</v>
+        <v>1.030271701592842</v>
       </c>
       <c r="L15">
-        <v>1.059188097420435</v>
+        <v>1.016766034034273</v>
       </c>
       <c r="M15">
-        <v>1.066954202414139</v>
+        <v>1.024502256331966</v>
       </c>
       <c r="N15">
-        <v>1.05285707131922</v>
+        <v>1.028177548791714</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045587663272776</v>
+        <v>1.001244903357493</v>
       </c>
       <c r="D16">
-        <v>1.045956272565706</v>
+        <v>1.018513217229912</v>
       </c>
       <c r="E16">
-        <v>1.056439887166407</v>
+        <v>1.005625828515845</v>
       </c>
       <c r="F16">
-        <v>1.064264156840128</v>
+        <v>1.013702135532425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043703268017677</v>
+        <v>1.043808687865893</v>
       </c>
       <c r="J16">
-        <v>1.051839088521165</v>
+        <v>1.029332588571639</v>
       </c>
       <c r="K16">
-        <v>1.049358673469635</v>
+        <v>1.032520345403197</v>
       </c>
       <c r="L16">
-        <v>1.059806103661648</v>
+        <v>1.019857862947075</v>
       </c>
       <c r="M16">
-        <v>1.067603878157522</v>
+        <v>1.027792359187662</v>
       </c>
       <c r="N16">
-        <v>1.053332820674495</v>
+        <v>1.030794358913509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046021771814482</v>
+        <v>1.003625378808177</v>
       </c>
       <c r="D17">
-        <v>1.046279810917052</v>
+        <v>1.020245508728581</v>
       </c>
       <c r="E17">
-        <v>1.056899205550995</v>
+        <v>1.007898040251173</v>
       </c>
       <c r="F17">
-        <v>1.064742765841225</v>
+        <v>1.016093962907485</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04383166157198</v>
+        <v>1.04464787756154</v>
       </c>
       <c r="J17">
-        <v>1.052136819484073</v>
+        <v>1.03094494842336</v>
       </c>
       <c r="K17">
-        <v>1.049610213039299</v>
+        <v>1.033907634481952</v>
       </c>
       <c r="L17">
-        <v>1.060193793899112</v>
+        <v>1.021768991006587</v>
       </c>
       <c r="M17">
-        <v>1.068011405033222</v>
+        <v>1.029825570806606</v>
       </c>
       <c r="N17">
-        <v>1.05363097444952</v>
+        <v>1.03240900850116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046274947840953</v>
+        <v>1.005000646617933</v>
       </c>
       <c r="D18">
-        <v>1.04646849860917</v>
+        <v>1.0212469019924</v>
       </c>
       <c r="E18">
-        <v>1.057167197576601</v>
+        <v>1.009212262590183</v>
       </c>
       <c r="F18">
-        <v>1.065021998317295</v>
+        <v>1.01747711858911</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043906401685938</v>
+        <v>1.045131713363461</v>
       </c>
       <c r="J18">
-        <v>1.052310383531901</v>
+        <v>1.031876057652081</v>
       </c>
       <c r="K18">
-        <v>1.049756828085831</v>
+        <v>1.034708694732432</v>
       </c>
       <c r="L18">
-        <v>1.060419938650592</v>
+        <v>1.022873852717834</v>
       </c>
       <c r="M18">
-        <v>1.068249109802733</v>
+        <v>1.031000842579945</v>
       </c>
       <c r="N18">
-        <v>1.053804784978204</v>
+        <v>1.033341440011785</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046361268912921</v>
+        <v>1.005467375819361</v>
       </c>
       <c r="D19">
-        <v>1.046532831705483</v>
+        <v>1.021586846887778</v>
       </c>
       <c r="E19">
-        <v>1.057258589431887</v>
+        <v>1.009658527490422</v>
       </c>
       <c r="F19">
-        <v>1.065117220939154</v>
+        <v>1.01794674870397</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043931860755335</v>
+        <v>1.045295745084444</v>
       </c>
       <c r="J19">
-        <v>1.05236954788961</v>
+        <v>1.03219198226763</v>
       </c>
       <c r="K19">
-        <v>1.049806802447348</v>
+        <v>1.034980480635714</v>
       </c>
       <c r="L19">
-        <v>1.060497050165029</v>
+        <v>1.023248938576494</v>
       </c>
       <c r="M19">
-        <v>1.068330161229957</v>
+        <v>1.031399803218746</v>
       </c>
       <c r="N19">
-        <v>1.053864033356088</v>
+        <v>1.033657813276525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045975199410454</v>
+        <v>1.003371353978213</v>
       </c>
       <c r="D20">
-        <v>1.046245101082866</v>
+        <v>1.020060589814391</v>
       </c>
       <c r="E20">
-        <v>1.05684991683253</v>
+        <v>1.007655412120247</v>
       </c>
       <c r="F20">
-        <v>1.064691408606337</v>
+        <v>1.015838588291335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043817901642326</v>
+        <v>1.044558428254245</v>
       </c>
       <c r="J20">
-        <v>1.052104885847341</v>
+        <v>1.030772931340702</v>
       </c>
       <c r="K20">
-        <v>1.049583235956308</v>
+        <v>1.033759637034709</v>
       </c>
       <c r="L20">
-        <v>1.060152197213667</v>
+        <v>1.021564972877957</v>
       </c>
       <c r="M20">
-        <v>1.06796768113605</v>
+        <v>1.029608537492788</v>
       </c>
       <c r="N20">
-        <v>1.053598995463362</v>
+        <v>1.032236747134513</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044719669305171</v>
+        <v>0.996398382223099</v>
       </c>
       <c r="D21">
-        <v>1.045309346006124</v>
+        <v>1.01499051692213</v>
       </c>
       <c r="E21">
-        <v>1.055522213090068</v>
+        <v>1.001009675499697</v>
       </c>
       <c r="F21">
-        <v>1.063307847195297</v>
+        <v>1.008841308284048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043445649703767</v>
+        <v>1.042093828658376</v>
       </c>
       <c r="J21">
-        <v>1.051243297807337</v>
+        <v>1.02604746121936</v>
       </c>
       <c r="K21">
-        <v>1.048855179512803</v>
+        <v>1.029693347992827</v>
       </c>
       <c r="L21">
-        <v>1.059031180874093</v>
+        <v>1.015971944484501</v>
       </c>
       <c r="M21">
-        <v>1.066789235356851</v>
+        <v>1.023657093255209</v>
       </c>
       <c r="N21">
-        <v>1.052736183869515</v>
+        <v>1.02750456630358</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043929968775535</v>
+        <v>0.991885071107721</v>
       </c>
       <c r="D22">
-        <v>1.04472075692084</v>
+        <v>1.011715159566662</v>
       </c>
       <c r="E22">
-        <v>1.054688140208445</v>
+        <v>0.9967225410263343</v>
       </c>
       <c r="F22">
-        <v>1.062438550453123</v>
+        <v>1.004324977473491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043210249622603</v>
+        <v>1.040489851019343</v>
       </c>
       <c r="J22">
-        <v>1.050700701109234</v>
+        <v>1.02298561526551</v>
       </c>
       <c r="K22">
-        <v>1.048396483929691</v>
+        <v>1.027058055294541</v>
       </c>
       <c r="L22">
-        <v>1.058326450734751</v>
+        <v>1.012359205825197</v>
       </c>
       <c r="M22">
-        <v>1.066048303245875</v>
+        <v>1.019811239866907</v>
       </c>
       <c r="N22">
-        <v>1.052192816621863</v>
+        <v>1.024438372177277</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044348632756349</v>
+        <v>0.9942904143397165</v>
       </c>
       <c r="D23">
-        <v>1.0450328022224</v>
+        <v>1.013460114623542</v>
       </c>
       <c r="E23">
-        <v>1.05513023138166</v>
+        <v>0.9990059703247146</v>
       </c>
       <c r="F23">
-        <v>1.062899324354446</v>
+        <v>1.006730714657283</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043335167774567</v>
+        <v>1.041345483583294</v>
       </c>
       <c r="J23">
-        <v>1.050988425729183</v>
+        <v>1.024617692440615</v>
       </c>
       <c r="K23">
-        <v>1.048639736162087</v>
+        <v>1.028462809853523</v>
       </c>
       <c r="L23">
-        <v>1.058700032635954</v>
+        <v>1.01428387614875</v>
       </c>
       <c r="M23">
-        <v>1.066441085412681</v>
+        <v>1.021860253619597</v>
       </c>
       <c r="N23">
-        <v>1.052480949843777</v>
+        <v>1.026072767089173</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045996243574051</v>
+        <v>1.003486177622871</v>
       </c>
       <c r="D24">
-        <v>1.046260785045358</v>
+        <v>1.020144174529607</v>
       </c>
       <c r="E24">
-        <v>1.056872188037157</v>
+        <v>1.007765079604436</v>
       </c>
       <c r="F24">
-        <v>1.064714614519811</v>
+        <v>1.015954017941678</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043824119624584</v>
+        <v>1.044598863967243</v>
       </c>
       <c r="J24">
-        <v>1.05211931558386</v>
+        <v>1.030850687291082</v>
       </c>
       <c r="K24">
-        <v>1.049595426059202</v>
+        <v>1.033826535752276</v>
       </c>
       <c r="L24">
-        <v>1.060170992929157</v>
+        <v>1.021657190303583</v>
       </c>
       <c r="M24">
-        <v>1.067987438078934</v>
+        <v>1.02970663838421</v>
       </c>
       <c r="N24">
-        <v>1.053613445691762</v>
+        <v>1.032314613507263</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04790694810524</v>
+        <v>1.013642671907158</v>
       </c>
       <c r="D25">
-        <v>1.047684741993373</v>
+        <v>1.027549273455707</v>
       </c>
       <c r="E25">
-        <v>1.058896749861693</v>
+        <v>1.01749678284556</v>
       </c>
       <c r="F25">
-        <v>1.066823827483695</v>
+        <v>1.02619183257476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044385650652811</v>
+        <v>1.048154037834094</v>
       </c>
       <c r="J25">
-        <v>1.053427832428457</v>
+        <v>1.037719469853695</v>
       </c>
       <c r="K25">
-        <v>1.050700383431613</v>
+        <v>1.039734462166564</v>
       </c>
       <c r="L25">
-        <v>1.061878418940674</v>
+        <v>1.029829422614223</v>
       </c>
       <c r="M25">
-        <v>1.069781946689026</v>
+        <v>1.03839671843055</v>
       </c>
       <c r="N25">
-        <v>1.054923820780367</v>
+        <v>1.039193150528974</v>
       </c>
     </row>
   </sheetData>
